--- a/LavUpdate/Other/station_file.xlsx
+++ b/LavUpdate/Other/station_file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aof\Desktop\LavUpdate\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githup\LavUpdate\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F88EBE-DBD6-4166-BC03-87874AFE63ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7AD37D-A983-427B-8DF8-D4D192A5043C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8652" xr2:uid="{73F5FA63-0169-4568-9D4E-B8BA638E2073}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>id_station</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>10.195.5.52</t>
+  </si>
+  <si>
+    <t>10.195.2.140</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
